--- a/cases/NorthSea_v2/Networks/ImportLimits.xlsx
+++ b/cases/NorthSea_v2/Networks/ImportLimits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea_v2\Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF679CDC-0FC5-43D5-95A1-D046EEC2206B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F8AD09-81AF-496C-A110-AB9B9A94C319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$2:$I$62</definedName>
+    <definedName name="Factor">Data!$B$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Node</t>
   </si>
@@ -419,6 +420,9 @@
   </si>
   <si>
     <t>onNL_C</t>
+  </si>
+  <si>
+    <t>Factor</t>
   </si>
 </sst>
 </file>
@@ -999,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1092,8 +1096,8 @@
         <v>onBE</v>
       </c>
       <c r="B10">
-        <f>Data!B13</f>
-        <v>1850</v>
+        <f>Data!B13*Factor</f>
+        <v>3700</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1101,8 +1105,8 @@
         <v>onDE</v>
       </c>
       <c r="B11">
-        <f>Data!B5+Data!B7+Data!B8+Data!B15+Data!B29+Data!B45+Data!B50</f>
-        <v>13068</v>
+        <f>(Data!B5+Data!B7+Data!B8+Data!B15+Data!B29+Data!B45+Data!B50)*Factor</f>
+        <v>26136</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1110,8 +1114,8 @@
         <v>onUK</v>
       </c>
       <c r="B12">
-        <f>Data!B19+Data!B23+Data!B33</f>
-        <v>2750</v>
+        <f>(Data!B19+Data!B23+Data!B33)*Factor</f>
+        <v>5500</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1119,8 +1123,8 @@
         <v>onNOS</v>
       </c>
       <c r="B13">
-        <f>Data!B41+Data!B54+1375</f>
-        <v>4312</v>
+        <f>(Data!B41+Data!B54+1375)*Factor</f>
+        <v>8624</v>
       </c>
       <c r="D13" t="s">
         <v>79</v>
@@ -1131,8 +1135,8 @@
         <v>onDKW</v>
       </c>
       <c r="B14">
-        <f>Data!B51</f>
-        <v>1403</v>
+        <f>(Data!B51)*Factor</f>
+        <v>2806</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1270,11 +1274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBDC3EC-D7FD-495E-8C06-AB8FF0FD2F6C}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1321,7 +1324,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1347,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1781,7 +1784,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1873,7 +1876,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -1919,7 +1922,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -2011,7 +2014,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
@@ -2034,7 +2037,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -2080,7 +2083,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -2172,7 +2175,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -2264,7 +2267,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
@@ -2310,7 +2313,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -2356,7 +2359,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -2402,7 +2405,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
@@ -2448,7 +2451,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -2471,7 +2474,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
@@ -2494,7 +2497,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -2563,7 +2566,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -2609,7 +2612,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
         <v>74</v>
       </c>
@@ -2701,18 +2704,16 @@
         <v>2.3E-2</v>
       </c>
     </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="8">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I62" xr:uid="{6EBDC3EC-D7FD-495E-8C06-AB8FF0FD2F6C}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="DE-BE"/>
-        <filter val="FR-BE"/>
-        <filter val="GB-BE"/>
-        <filter val="LU-BE"/>
-        <filter val="NL-BE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:I62" xr:uid="{6EBDC3EC-D7FD-495E-8C06-AB8FF0FD2F6C}"/>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>

--- a/cases/NorthSea_v2/Networks/ImportLimits.xlsx
+++ b/cases/NorthSea_v2/Networks/ImportLimits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea_v2\Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F8AD09-81AF-496C-A110-AB9B9A94C319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9D5CE5-73B2-434B-8D14-037B3286EC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ToPython" sheetId="1" r:id="rId1"/>
@@ -1003,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B10">
         <f>Data!B13*Factor</f>
-        <v>3700</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B11">
         <f>(Data!B5+Data!B7+Data!B8+Data!B15+Data!B29+Data!B45+Data!B50)*Factor</f>
-        <v>26136</v>
+        <v>13068</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B12">
         <f>(Data!B19+Data!B23+Data!B33)*Factor</f>
-        <v>5500</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B13">
         <f>(Data!B41+Data!B54+1375)*Factor</f>
-        <v>8624</v>
+        <v>4312</v>
       </c>
       <c r="D13" t="s">
         <v>79</v>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B14">
         <f>(Data!B51)*Factor</f>
-        <v>2806</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1276,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBDC3EC-D7FD-495E-8C06-AB8FF0FD2F6C}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
@@ -2709,7 +2709,7 @@
         <v>81</v>
       </c>
       <c r="B65" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
